--- a/VietvietTravel/ChucNang_V2.xlsx
+++ b/VietvietTravel/ChucNang_V2.xlsx
@@ -628,14 +628,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -655,15 +682,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -690,24 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,17 +1000,17 @@
     <col min="1" max="1" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="6"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="96" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -1027,23 +1027,23 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="A7" s="41">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1051,87 +1051,87 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="37">
+      <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1139,15 +1139,15 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
@@ -1156,73 +1156,73 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24">
+      <c r="A31" s="16">
         <v>4</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1230,29 +1230,29 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24">
+      <c r="A38" s="16">
         <v>7</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1291,52 +1291,52 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24">
+      <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1344,24 +1344,24 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5">
-      <c r="A46" s="25"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="24">
+      <c r="A48" s="16">
         <v>9</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1369,24 +1369,24 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24">
+      <c r="A51" s="16">
         <v>10</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1394,8 +1394,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.5">
-      <c r="A56" s="27">
+      <c r="A56" s="33">
         <v>14</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -1445,24 +1445,24 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="24">
+      <c r="A59" s="16">
         <v>15</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1470,17 +1470,17 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24">
+      <c r="A61" s="16">
         <v>16</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1488,31 +1488,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="37">
+      <c r="A65" s="21">
         <v>17</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1520,15 +1520,15 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="2" t="s">
         <v>60</v>
       </c>
@@ -1556,17 +1556,17 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="24">
+      <c r="A71" s="16">
         <v>20</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -1574,8 +1574,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.5">
-      <c r="A72" s="26"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="2" t="s">
         <v>66</v>
       </c>
@@ -1603,10 +1603,10 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="24">
+      <c r="A75" s="16">
         <v>23</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -1614,17 +1614,17 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="24">
+      <c r="A77" s="16">
         <v>24</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -1632,24 +1632,24 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="24">
+      <c r="A80" s="16">
         <v>25</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -1657,24 +1657,24 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="17"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.5">
-      <c r="A83" s="24">
+      <c r="A83" s="16">
         <v>26</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -1682,17 +1682,17 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="24">
+      <c r="A85" s="16">
         <v>27</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -1700,24 +1700,24 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="17"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1">
-      <c r="A88" s="18">
+      <c r="A88" s="27">
         <v>28</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="22" t="s">
         <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -1725,24 +1725,24 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="A91" s="40">
+      <c r="A91" s="19">
         <v>29</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -1750,14 +1750,41 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="41"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B88:B90"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A85:A87"/>
@@ -1774,33 +1801,6 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/VietvietTravel/ChucNang_V2.xlsx
+++ b/VietvietTravel/ChucNang_V2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VietvietTravel\VietvietTravel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Chi tiết" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -387,13 +392,16 @@
   </si>
   <si>
     <t>quản lý thông tin liên lạc: fanpage fb</t>
+  </si>
+  <si>
+    <t>chưa làm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +444,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +477,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -584,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,86 +655,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,21 +1017,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
@@ -1005,14 +1041,14 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="96" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,131 +1059,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="41">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="40"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="40"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="40"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="40"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="21">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
         <v>3</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
@@ -1155,109 +1191,109 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="21"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="21"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="21"/>
-      <c r="B26" s="25"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="25"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="25"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="16">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>4</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="24"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="24"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="23"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>5</v>
       </c>
@@ -1267,8 +1303,11 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="D36" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>6</v>
       </c>
@@ -1279,128 +1318,130 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="16">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
         <v>7</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="24"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="24"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="24"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="23"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="16">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
         <v>8</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="24"/>
+    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="23"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="16">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
         <v>9</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="24"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="23"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="16">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>10</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="23"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30">
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>11</v>
       </c>
@@ -1411,7 +1452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>12</v>
       </c>
@@ -1422,7 +1463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45">
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>13</v>
       </c>
@@ -1433,107 +1474,108 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.5">
-      <c r="A56" s="33">
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
         <v>14</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="38"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="16">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>15</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="23"/>
+      <c r="D59" s="44"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="16">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>16</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="37" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="24"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="24"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="23"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="21">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>17</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="25"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="25"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>18</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>19</v>
       </c>
@@ -1555,32 +1597,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="26" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="16">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>20</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5">
-      <c r="A72" s="17"/>
-      <c r="B72" s="23"/>
+    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>21</v>
       </c>
@@ -1591,7 +1633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>22</v>
       </c>
@@ -1602,173 +1644,178 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="16">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>23</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="23"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="16">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
         <v>24</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="24"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="23"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="16">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
         <v>25</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="24"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="23"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.5">
-      <c r="A83" s="16">
+    <row r="83" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
         <v>26</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="23"/>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="16">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
         <v>27</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="24"/>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="23"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1">
-      <c r="A88" s="27">
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
         <v>28</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="28"/>
-      <c r="B89" s="24"/>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="29"/>
-      <c r="B90" s="23"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="A91" s="19">
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42">
         <v>29</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="23"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B64"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A38:A44"/>
@@ -1785,22 +1832,17 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/VietvietTravel/ChucNang_V2.xlsx
+++ b/VietvietTravel/ChucNang_V2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VietvietTravel\VietvietTravel\"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,9 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -745,9 +742,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,11 +1042,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1063,23 +1063,23 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1087,87 +1087,87 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>3</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1175,15 +1175,15 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
@@ -1192,73 +1192,73 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>4</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1266,29 +1266,29 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1319,10 +1319,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>7</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1330,52 +1330,52 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>8</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1383,24 +1383,24 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>9</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1408,38 +1408,38 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>10</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
@@ -1475,10 +1475,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="A56" s="25">
         <v>14</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -1486,43 +1486,43 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>15</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="44"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>16</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1530,52 +1530,52 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="35">
         <v>17</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="35"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="35"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>18</v>
       </c>
@@ -1585,8 +1585,9 @@
       <c r="C68" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>19</v>
       </c>
@@ -1597,32 +1598,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
         <v>20</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="38"/>
+    <row r="72" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>21</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>22</v>
       </c>
@@ -1644,54 +1645,54 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
         <v>23</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="38"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
         <v>24</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="39"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="38"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
         <v>25</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -1699,24 +1700,24 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>26</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -1724,17 +1725,17 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="22">
         <v>27</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -1742,24 +1743,24 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>28</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -1767,24 +1768,24 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42">
+      <c r="A91" s="41">
         <v>29</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -1792,8 +1793,8 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
